--- a/Registration/reg1.xlsx
+++ b/Registration/reg1.xlsx
@@ -456,27 +456,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Harry</t>
+          <t>Liam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Styles</t>
+          <t>Payne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>harryles@gmail.com</t>
+          <t>liam@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9639639632</t>
+          <t>5695695698</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
